--- a/test/Server-manual-testing.xlsx
+++ b/test/Server-manual-testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Server-Testcases" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t xml:space="preserve">Test number</t>
   </si>
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t xml:space="preserve">Responce is new created user
-Status</t>
+Status 201</t>
   </si>
   <si>
     <t xml:space="preserve">update user</t>
@@ -118,7 +118,28 @@
     <t xml:space="preserve">post on auth/egister</t>
   </si>
   <si>
-    <t xml:space="preserve">Response is a new registered user saved in a database</t>
+    <t xml:space="preserve">Response is a new registered user saved in a database
+Status 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post on auth/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response is a registered user logged in
+Status 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logout user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get on auth/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responce is user logout
+Status 200</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -156,12 +177,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,81 +201,32 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Abyssinica SIL"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Abyssinica SIL"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Abyssinica SIL"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -261,76 +234,16 @@
       <name val="Abyssinica SIL"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -338,23 +251,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -378,92 +276,45 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -472,91 +323,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -565,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -577,7 +351,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
@@ -737,8 +511,48 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -766,36 +580,36 @@
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>44059</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -805,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -813,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -821,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -829,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -837,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -869,23 +683,23 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>44060</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -933,52 +747,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>44030</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test/Server-manual-testing.xlsx
+++ b/test/Server-manual-testing.xlsx
@@ -12,6 +12,7 @@
     <sheet name="TestRun-16Jul" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TestRun-17Jul" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TestRun-18 Jul" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TestRun-23 Jul" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t xml:space="preserve">Test number</t>
   </si>
@@ -89,7 +90,7 @@
     <t xml:space="preserve">update user</t>
   </si>
   <si>
-    <t xml:space="preserve">put on /users</t>
+    <t xml:space="preserve">patch on /users</t>
   </si>
   <si>
     <t xml:space="preserve">Response is a user with a gived ID updated 
@@ -103,7 +104,7 @@
   </si>
   <si>
     <t xml:space="preserve">Responce is user with given ID removed
-Status</t>
+Status 204</t>
   </si>
   <si>
     <t xml:space="preserve">auth</t>
@@ -142,6 +143,39 @@
 Status 200</t>
   </si>
   <si>
+    <t xml:space="preserve">update user as verified
+Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch on users/id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response is user updated
+Status 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete user as verified
+Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update user as admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete user as admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update user as 
+Not verified/no admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responce is Forbidden
+Status 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete user as 
+Not verified/no admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -167,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">path added to auth_controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error in user_controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function verifyOwner updated</t>
   </si>
 </sst>
 </file>
@@ -277,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,10 +358,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -339,10 +375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,6 +589,126 @@
       </c>
       <c r="F10" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -586,19 +742,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -619,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -627,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -635,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -643,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -651,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +829,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,19 +839,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,30 +861,48 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -753,62 +927,62 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
         <v>44030</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>41</v>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -820,4 +994,131 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test/Server-manual-testing.xlsx
+++ b/test/Server-manual-testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Server-Testcases" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="TestRun-17Jul" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TestRun-18 Jul" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="TestRun-23 Jul" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TestRun-24 Jul" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t xml:space="preserve">Test number</t>
   </si>
@@ -377,7 +378,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1004,7 +1005,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1121,4 +1122,57 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>44036</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>